--- a/DAILY-REPORT.xlsx
+++ b/DAILY-REPORT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="289">
   <si>
     <t>Tickets</t>
   </si>
@@ -52,145 +52,145 @@
     <t>#11 Mar '24</t>
   </si>
   <si>
-    <t>22.72</t>
+    <t>22.66</t>
   </si>
   <si>
-    <t>-0.64</t>
+    <t>-0.70</t>
   </si>
   <si>
-    <t>-3.13</t>
+    <t>-3.21</t>
   </si>
   <si>
-    <t>-4.61</t>
+    <t>-4.69</t>
   </si>
   <si>
-    <t>-3.98</t>
+    <t>-4.06</t>
   </si>
   <si>
-    <t>+4.99</t>
+    <t>+4.91</t>
   </si>
   <si>
-    <t>-2.74%</t>
+    <t>-3.00%</t>
   </si>
   <si>
-    <t>-12.13%</t>
+    <t>-12.44%</t>
   </si>
   <si>
-    <t>-16.89%</t>
+    <t>-17.19%</t>
   </si>
   <si>
-    <t>-14.93%</t>
+    <t>-15.23%</t>
   </si>
   <si>
-    <t>+28.21%</t>
+    <t>+27.76%</t>
   </si>
   <si>
     <t>#11 May '24</t>
   </si>
   <si>
-    <t>21.87</t>
+    <t>21.79</t>
   </si>
   <si>
-    <t>-0.59</t>
+    <t>-0.67</t>
   </si>
   <si>
-    <t>-2.92</t>
+    <t>-2.99</t>
   </si>
   <si>
-    <t>-4.11</t>
+    <t>-4.18</t>
   </si>
   <si>
-    <t>-3.41</t>
+    <t>-3.48</t>
   </si>
   <si>
-    <t>+4.87</t>
+    <t>+4.80</t>
   </si>
   <si>
-    <t>-2.63%</t>
+    <t>-2.98%</t>
   </si>
   <si>
-    <t>-11.80%</t>
+    <t>-12.09%</t>
   </si>
   <si>
-    <t>-15.85%</t>
+    <t>-16.12%</t>
   </si>
   <si>
-    <t>-13.52%</t>
+    <t>-13.79%</t>
   </si>
   <si>
-    <t>+28.73%</t>
+    <t>+28.32%</t>
   </si>
   <si>
     <t>#11 Jul '24</t>
   </si>
   <si>
-    <t>21.33</t>
+    <t>21.25</t>
   </si>
   <si>
-    <t>-0.55</t>
+    <t>-0.63</t>
   </si>
   <si>
-    <t>-2.72</t>
+    <t>-2.79</t>
   </si>
   <si>
-    <t>-3.52</t>
+    <t>-3.59</t>
   </si>
   <si>
-    <t>-2.71</t>
+    <t>-2.78</t>
   </si>
   <si>
-    <t>+4.83</t>
+    <t>+4.76</t>
   </si>
   <si>
-    <t>-2.51%</t>
+    <t>-2.88%</t>
   </si>
   <si>
-    <t>-11.32%</t>
+    <t>-11.62%</t>
   </si>
   <si>
-    <t>-14.18%</t>
+    <t>-14.46%</t>
   </si>
   <si>
-    <t>-11.29%</t>
+    <t>-11.58%</t>
   </si>
   <si>
-    <t>+29.33%</t>
+    <t>+28.90%</t>
   </si>
   <si>
     <t>#11 Oct '24</t>
   </si>
   <si>
-    <t>21.09</t>
+    <t>21.01</t>
   </si>
   <si>
-    <t>-0.52</t>
+    <t>-0.60</t>
   </si>
   <si>
-    <t>-2.66</t>
+    <t>-2.73</t>
   </si>
   <si>
-    <t>-3.23</t>
+    <t>-3.30</t>
   </si>
   <si>
-    <t>-2.47</t>
+    <t>-2.54</t>
   </si>
   <si>
-    <t>+4.71</t>
+    <t>+4.64</t>
   </si>
   <si>
-    <t>-2.41%</t>
+    <t>-2.78%</t>
   </si>
   <si>
-    <t>-11.20%</t>
+    <t>-11.50%</t>
   </si>
   <si>
-    <t>-13.29%</t>
+    <t>-13.57%</t>
   </si>
   <si>
-    <t>-10.49%</t>
+    <t>-10.79%</t>
   </si>
   <si>
-    <t>+28.77%</t>
+    <t>+28.34%</t>
   </si>
   <si>
     <t>LDN ICE WHITE SUGAR #5</t>
@@ -199,115 +199,118 @@
     <t>#5 Mar '24</t>
   </si>
   <si>
-    <t>644.80</t>
+    <t>642.40</t>
   </si>
   <si>
-    <t>-9.60</t>
+    <t>-12.00</t>
   </si>
   <si>
-    <t>-65.70</t>
+    <t>-67.60</t>
   </si>
   <si>
-    <t>-93.20</t>
+    <t>-95.10</t>
   </si>
   <si>
-    <t>-70.40</t>
+    <t>-72.30</t>
   </si>
   <si>
-    <t>+165.40</t>
+    <t>+163.50</t>
   </si>
   <si>
-    <t>-1.47%</t>
+    <t>-1.83%</t>
   </si>
   <si>
-    <t>-9.26%</t>
+    <t>-9.53%</t>
   </si>
   <si>
-    <t>-12.65%</t>
+    <t>-12.90%</t>
   </si>
   <si>
-    <t>-9.86%</t>
+    <t>-10.12%</t>
   </si>
   <si>
-    <t>+34.57%</t>
+    <t>+34.18%</t>
   </si>
   <si>
     <t>#5 May '24</t>
   </si>
   <si>
-    <t>626.70</t>
+    <t>624.20</t>
   </si>
   <si>
-    <t>-10.40</t>
+    <t>-12.90</t>
   </si>
   <si>
-    <t>-64.10</t>
+    <t>-65.30</t>
   </si>
   <si>
-    <t>-75.20</t>
+    <t>-94.40</t>
   </si>
   <si>
-    <t>+154.50</t>
+    <t>-76.40</t>
   </si>
   <si>
-    <t>-1.63%</t>
+    <t>+153.30</t>
   </si>
   <si>
-    <t>-9.30%</t>
+    <t>-2.02%</t>
   </si>
   <si>
-    <t>-12.98%</t>
+    <t>-9.47%</t>
   </si>
   <si>
-    <t>-10.74%</t>
+    <t>-13.14%</t>
   </si>
   <si>
-    <t>+32.83%</t>
+    <t>-10.91%</t>
+  </si>
+  <si>
+    <t>+32.58%</t>
   </si>
   <si>
     <t>#5 Aug '24</t>
   </si>
   <si>
-    <t>611.00</t>
+    <t>609.30</t>
   </si>
   <si>
-    <t>-10.80</t>
-  </si>
-  <si>
-    <t>-60.50</t>
-  </si>
-  <si>
-    <t>-80.10</t>
+    <t>-12.50</t>
   </si>
   <si>
     <t>-61.80</t>
   </si>
   <si>
-    <t>+150.40</t>
+    <t>-81.40</t>
   </si>
   <si>
-    <t>-1.74%</t>
+    <t>-63.10</t>
   </si>
   <si>
-    <t>-9.02%</t>
+    <t>+149.10</t>
   </si>
   <si>
-    <t>-11.60%</t>
+    <t>-2.01%</t>
   </si>
   <si>
-    <t>-9.19%</t>
+    <t>-9.21%</t>
   </si>
   <si>
-    <t>+32.69%</t>
+    <t>-11.79%</t>
+  </si>
+  <si>
+    <t>-9.39%</t>
+  </si>
+  <si>
+    <t>+32.41%</t>
   </si>
   <si>
     <t>#5 Oct '24</t>
   </si>
   <si>
-    <t>597.40</t>
+    <t>595.00</t>
   </si>
   <si>
-    <t>-10.00</t>
+    <t>-12.40</t>
   </si>
   <si>
     <t>-58.50</t>
@@ -319,7 +322,7 @@
     <t>-51.20</t>
   </si>
   <si>
-    <t>-1.65%</t>
+    <t>-2.04%</t>
   </si>
   <si>
     <t>-8.92%</t>
@@ -367,37 +370,37 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>1,992.49</t>
+    <t>1,991.58</t>
   </si>
   <si>
-    <t>-11.74</t>
+    <t>-12.65</t>
   </si>
   <si>
-    <t>-34.92</t>
+    <t>-35.73</t>
   </si>
   <si>
-    <t>+56.24</t>
+    <t>+55.43</t>
   </si>
   <si>
-    <t>+71.89</t>
+    <t>+71.08</t>
   </si>
   <si>
-    <t>+196.96</t>
+    <t>+196.15</t>
   </si>
   <si>
-    <t>-0.59%</t>
+    <t>-0.63%</t>
   </si>
   <si>
-    <t>-1.72%</t>
+    <t>-1.76%</t>
   </si>
   <si>
-    <t>+2.90%</t>
+    <t>+2.86%</t>
   </si>
   <si>
-    <t>+3.74%</t>
+    <t>+3.70%</t>
   </si>
   <si>
-    <t>+10.96%</t>
+    <t>+10.91%</t>
   </si>
   <si>
     <t>FUELS</t>
@@ -406,106 +409,109 @@
     <t>Crude Oil WTI</t>
   </si>
   <si>
-    <t>71.28</t>
+    <t>71.19</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>-0.04</t>
   </si>
   <si>
-    <t>-1.87</t>
+    <t>-1.90</t>
   </si>
   <si>
-    <t>-5.98</t>
+    <t>-6.01</t>
   </si>
   <si>
-    <t>-13.98</t>
+    <t>-14.01</t>
   </si>
   <si>
-    <t>+0.06</t>
+    <t>+0.03</t>
   </si>
   <si>
-    <t>0.07%</t>
+    <t>-0.06%</t>
   </si>
   <si>
-    <t>-2.56%</t>
+    <t>-2.60%</t>
   </si>
   <si>
-    <t>-7.75%</t>
+    <t>-7.79%</t>
   </si>
   <si>
-    <t>-16.42%</t>
+    <t>-16.45%</t>
   </si>
   <si>
-    <t>+0.08%</t>
+    <t>+0.04%</t>
   </si>
   <si>
     <t>Brent Crude Oil</t>
   </si>
   <si>
-    <t>75.86</t>
+    <t>75.79</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>-0.05</t>
   </si>
   <si>
-    <t>-2.20</t>
+    <t>-2.27</t>
   </si>
   <si>
-    <t>-5.30</t>
+    <t>-5.37</t>
   </si>
   <si>
-    <t>-12.75</t>
+    <t>-12.82</t>
   </si>
   <si>
-    <t>+0.34</t>
+    <t>+0.27</t>
   </si>
   <si>
-    <t>0.03%</t>
+    <t>-0.07%</t>
   </si>
   <si>
-    <t>-2.82%</t>
+    <t>-2.91%</t>
   </si>
   <si>
-    <t>-6.53%</t>
+    <t>-6.62%</t>
   </si>
   <si>
-    <t>-14.39%</t>
+    <t>-14.47%</t>
   </si>
   <si>
-    <t>+0.45%</t>
+    <t>+0.36%</t>
   </si>
   <si>
     <t>RBOB Gasoline</t>
   </si>
   <si>
-    <t>2.0513</t>
+    <t>2.0415</t>
   </si>
   <si>
-    <t>0.0015</t>
+    <t>-0.0083</t>
   </si>
   <si>
-    <t>-0.0837</t>
+    <t>-0.0932</t>
   </si>
   <si>
-    <t>-0.1158</t>
+    <t>-0.1253</t>
   </si>
   <si>
-    <t>-0.4396</t>
+    <t>-0.4491</t>
   </si>
   <si>
-    <t>+0.0416</t>
+    <t>+0.0321</t>
   </si>
   <si>
-    <t>-3.92%</t>
+    <t>-0.40%</t>
   </si>
   <si>
-    <t>-5.35%</t>
+    <t>-4.37%</t>
   </si>
   <si>
-    <t>-17.65%</t>
+    <t>-5.78%</t>
   </si>
   <si>
-    <t>+2.07%</t>
+    <t>-18.04%</t>
+  </si>
+  <si>
+    <t>+1.60%</t>
   </si>
   <si>
     <t>Ethanol</t>
@@ -553,7 +559,7 @@
     <t>104.11</t>
   </si>
   <si>
-    <t>0.13</t>
+    <t>+0.13</t>
   </si>
   <si>
     <t>+0.48</t>
@@ -568,7 +574,7 @@
     <t>-0.82</t>
   </si>
   <si>
-    <t>0.13%</t>
+    <t>+0.13%</t>
   </si>
   <si>
     <t>+0.46%</t>
@@ -586,166 +592,166 @@
     <t>Australian Dollar</t>
   </si>
   <si>
-    <t>1.5252</t>
+    <t>1.5239</t>
   </si>
   <si>
-    <t>0.0048</t>
+    <t>+0.0035</t>
   </si>
   <si>
-    <t>+0.0142</t>
+    <t>+0.0124</t>
   </si>
   <si>
-    <t>-0.0474</t>
+    <t>-0.0492</t>
   </si>
   <si>
-    <t>-0.0273</t>
+    <t>-0.0291</t>
   </si>
   <si>
-    <t>+0.0533</t>
+    <t>+0.0515</t>
   </si>
   <si>
-    <t>0.32%</t>
+    <t>+0.23%</t>
   </si>
   <si>
-    <t>+0.94%</t>
+    <t>+0.82%</t>
   </si>
   <si>
-    <t>-3.01%</t>
+    <t>-3.13%</t>
   </si>
   <si>
-    <t>-1.76%</t>
+    <t>-1.87%</t>
   </si>
   <si>
-    <t>+3.62%</t>
+    <t>+3.50%</t>
   </si>
   <si>
     <t>Brazilian Real</t>
   </si>
   <si>
-    <t>4.95794</t>
+    <t>4.95339</t>
   </si>
   <si>
-    <t>0.02659</t>
+    <t>+0.02204</t>
   </si>
   <si>
-    <t>+0.01350</t>
+    <t>+0.00550</t>
   </si>
   <si>
-    <t>+0.05224</t>
+    <t>+0.04424</t>
   </si>
   <si>
-    <t>+0.02843</t>
+    <t>+0.02043</t>
   </si>
   <si>
-    <t>-0.28272</t>
+    <t>-0.29072</t>
   </si>
   <si>
-    <t>0.54%</t>
+    <t>+0.45%</t>
   </si>
   <si>
-    <t>+0.27%</t>
+    <t>+0.11%</t>
   </si>
   <si>
-    <t>+1.06%</t>
+    <t>+0.90%</t>
   </si>
   <si>
-    <t>+0.58%</t>
+    <t>+0.41%</t>
   </si>
   <si>
-    <t>-5.39%</t>
+    <t>-5.55%</t>
   </si>
   <si>
     <t>Euro</t>
   </si>
   <si>
-    <t>0.92928</t>
+    <t>0.93049</t>
   </si>
   <si>
-    <t>0.00013</t>
+    <t>+0.00134</t>
   </si>
   <si>
-    <t>+0.00634</t>
+    <t>+0.00688</t>
   </si>
   <si>
-    <t>-0.00676</t>
+    <t>-0.00622</t>
   </si>
   <si>
-    <t>-0.00101</t>
+    <t>-0.00047</t>
   </si>
   <si>
-    <t>-0.02027</t>
+    <t>-0.01973</t>
   </si>
   <si>
-    <t>0.01%</t>
+    <t>+0.14%</t>
   </si>
   <si>
-    <t>+0.69%</t>
+    <t>+0.75%</t>
   </si>
   <si>
-    <t>-0.72%</t>
+    <t>-0.66%</t>
   </si>
   <si>
-    <t>-0.11%</t>
+    <t>-0.05%</t>
   </si>
   <si>
-    <t>-2.13%</t>
+    <t>-2.08%</t>
   </si>
   <si>
     <t>Japanese Yen</t>
   </si>
   <si>
-    <t>146.319</t>
+    <t>146.260</t>
   </si>
   <si>
-    <t>1.324</t>
+    <t>+1.265</t>
   </si>
   <si>
-    <t>-0.900</t>
+    <t>-0.991</t>
   </si>
   <si>
-    <t>-5.204</t>
+    <t>-5.295</t>
   </si>
   <si>
-    <t>-0.270</t>
+    <t>-0.361</t>
   </si>
   <si>
-    <t>+9.735</t>
+    <t>+9.644</t>
   </si>
   <si>
-    <t>0.91%</t>
+    <t>+0.87%</t>
   </si>
   <si>
-    <t>-0.61%</t>
+    <t>-0.67%</t>
   </si>
   <si>
-    <t>-3.43%</t>
+    <t>-3.49%</t>
   </si>
   <si>
-    <t>-0.18%</t>
+    <t>-0.25%</t>
   </si>
   <si>
-    <t>+7.13%</t>
+    <t>+7.06%</t>
   </si>
   <si>
     <t>Indian Rupee</t>
   </si>
   <si>
-    <t>83.3637</t>
+    <t>83.3634</t>
   </si>
   <si>
-    <t>-0.0726</t>
+    <t>-0.0729</t>
   </si>
   <si>
-    <t>-0.0711</t>
+    <t>-0.0724</t>
   </si>
   <si>
-    <t>-0.0163</t>
+    <t>-0.0176</t>
   </si>
   <si>
-    <t>+0.3851</t>
+    <t>+0.3838</t>
   </si>
   <si>
-    <t>+0.9231</t>
+    <t>+0.9218</t>
   </si>
   <si>
     <t>-0.09%</t>
@@ -760,25 +766,25 @@
     <t>Chinese Yuan</t>
   </si>
   <si>
-    <t>7.1774</t>
+    <t>7.1773</t>
   </si>
   <si>
-    <t>0.0142</t>
+    <t>+0.0141</t>
   </si>
   <si>
-    <t>+0.0878</t>
+    <t>+0.0879</t>
   </si>
   <si>
-    <t>-0.1125</t>
+    <t>-0.1124</t>
   </si>
   <si>
-    <t>-0.1122</t>
+    <t>-0.1121</t>
   </si>
   <si>
-    <t>+0.2195</t>
+    <t>+0.2196</t>
   </si>
   <si>
-    <t>0.20%</t>
+    <t>+0.20%</t>
   </si>
   <si>
     <t>+1.24%</t>
@@ -787,43 +793,43 @@
     <t>-1.54%</t>
   </si>
   <si>
-    <t>+3.15%</t>
+    <t>+3.16%</t>
   </si>
   <si>
     <t>Thai Baht</t>
   </si>
   <si>
-    <t>35.6982</t>
+    <t>35.7198</t>
   </si>
   <si>
-    <t>0.1173</t>
+    <t>+0.1389</t>
   </si>
   <si>
-    <t>+0.4585</t>
+    <t>+0.4739</t>
   </si>
   <si>
-    <t>-0.3655</t>
+    <t>-0.3501</t>
   </si>
   <si>
-    <t>+0.1869</t>
+    <t>+0.2023</t>
   </si>
   <si>
-    <t>+0.9918</t>
+    <t>+1.0072</t>
   </si>
   <si>
-    <t>0.33%</t>
+    <t>+0.39%</t>
   </si>
   <si>
-    <t>+1.30%</t>
+    <t>+1.34%</t>
   </si>
   <si>
-    <t>-1.01%</t>
+    <t>-0.97%</t>
   </si>
   <si>
-    <t>+0.53%</t>
+    <t>+0.57%</t>
   </si>
   <si>
-    <t>+2.86%</t>
+    <t>+2.90%</t>
   </si>
   <si>
     <t>Vietnam dong</t>
@@ -848,9 +854,6 @@
   </si>
   <si>
     <t>-0.21%</t>
-  </si>
-  <si>
-    <t>-0.25%</t>
   </si>
   <si>
     <t>-0.50%</t>
@@ -2303,94 +2306,94 @@
         <v>72</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" s="17"/>
     </row>
@@ -2398,37 +2401,37 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" s="18"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H29" s="17"/>
     </row>
@@ -2436,22 +2439,22 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" s="18"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
@@ -2462,49 +2465,49 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="25"/>
       <c r="D33" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -2515,175 +2518,175 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="17" t="s">
         <v>128</v>
       </c>
+      <c r="D35" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E35" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="18" t="s">
-        <v>133</v>
+      <c r="D36" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="17" t="s">
         <v>140</v>
       </c>
+      <c r="D37" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="E37" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="18" t="s">
-        <v>145</v>
+      <c r="D38" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="17" t="s">
         <v>152</v>
       </c>
+      <c r="D39" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E39" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="18" t="s">
-        <v>133</v>
+      <c r="D40" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="25"/>
       <c r="D42" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="27"/>
@@ -2694,380 +2697,380 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="18" t="s">
-        <v>181</v>
+      <c r="D45" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="18" t="s">
-        <v>193</v>
+      <c r="D47" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="18" t="s">
-        <v>205</v>
+      <c r="D49" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="18" t="s">
-        <v>217</v>
+      <c r="D51" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="18" t="s">
-        <v>229</v>
+      <c r="D53" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="25"/>
       <c r="D55" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="18" t="s">
-        <v>251</v>
+      <c r="D57" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="18" t="s">
-        <v>262</v>
+      <c r="D59" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="25"/>
       <c r="D61" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3178,94 +3181,94 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="K1" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="M1" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="S1" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="U1" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="P1" s="31" t="s">
+      <c r="W1" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA1" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="AB1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="S1" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="V1" s="31" t="s">
+      <c r="AC1" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG1" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="AH1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="Y1" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB1" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC1" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE1" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF1" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="AI1" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
